--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBDC4108-6ABF-4F8E-BEDF-FC36CA98B5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="51045" yWindow="300" windowWidth="15165" windowHeight="13905" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -18,25 +19,34 @@
     <sheet name="MISO-Wind" sheetId="39" r:id="rId4"/>
     <sheet name="CAISO - Peak" sheetId="40" r:id="rId5"/>
     <sheet name="Wind and Solar Capacity Factors" sheetId="32" r:id="rId6"/>
-    <sheet name="PTCF" sheetId="21" r:id="rId7"/>
+    <sheet name="Texas Notes" sheetId="41" r:id="rId7"/>
+    <sheet name="PTCF" sheetId="21" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="LocalAreaOptions">[1]Lists!$B$11:$B$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="219">
   <si>
     <t>June</t>
   </si>
@@ -192,30 +202,6 @@
   </si>
   <si>
     <t>* The methodology for calculating WINDPEAKPCT values is outlined in ERCOT Protocol Section 3.2.6.2.2. See: http://www.ercot.com/content/wcm/current_guides/53528/03_030115_Nodal.doc.</t>
-  </si>
-  <si>
-    <t>Winter Peak Ave. Wind Capacity Percentages</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
   </si>
   <si>
     <t>https://www.misoenergy.org/Library/Repository/Report/2016%20Wind%20Capacity%20Report.pdf</t>
@@ -937,16 +923,131 @@
   <si>
     <t>Peak Time Capacity Factors (dimensionless)</t>
   </si>
+  <si>
+    <t>Summer Peak Ave. Wind Capacity Percentages and Total Unit Capacities</t>
+  </si>
+  <si>
+    <t>CDR Wind Region</t>
+  </si>
+  <si>
+    <t>Panhandle</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Capacity Contribution Percentage</t>
+  </si>
+  <si>
+    <t>Capacity (MW)</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/167025/CDR_Summer_PeakAveSolarCapacityPercentages_11-26-2019.xlsx</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/167025/CDR_Summer_PeakAveWindCapacityPercentages_11-26-2019.xlsx</t>
+  </si>
+  <si>
+    <t>We use the same methodology for solar. For wind, instead of simply averaging the coastal and inland percentages, we take a weighted average based on the amount of capacity in each region.</t>
+  </si>
+  <si>
+    <t>We also use more recent data (2019) and calculate the values for ERCOT only.</t>
+  </si>
+  <si>
+    <t>Weighted Average of Capacity Contribution Percentage</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>2010-2019</t>
+  </si>
+  <si>
+    <t>OFFSHORE</t>
+  </si>
+  <si>
+    <t>Old EPS numbers below:</t>
+  </si>
+  <si>
+    <t>Ratio of Offshore:Onshore</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>average ratio</t>
+  </si>
+  <si>
+    <t>Texas Inland</t>
+  </si>
+  <si>
+    <t>Texas Coastal</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>For offshore wind, we use coastal wind as a proxy. See below.</t>
+  </si>
+  <si>
+    <t>Texas coastal wind is actually much more aligned with peak than inland wind is.</t>
+  </si>
+  <si>
+    <t>And this effect is much more pronounced than in the PJM, NYISO, and ISO-NE regions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***The problem with these numbers is that PJM, NYISO, and ISO-NE all have very different patterns than Texas, and will have different peaks. </t>
+  </si>
+  <si>
+    <t>So, their offshore wind patterns might be slightl different as well, so it might not be very comparable.</t>
+  </si>
+  <si>
+    <t>for verification, we compare texas inland:coastal wind,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So the 1.53 ratio for PJM, NYISO, and ISO-NE seems like a bad number for Texas. </t>
+  </si>
+  <si>
+    <t>It's fair to assume that coastal wind will have a similar profile as offshore wind</t>
+  </si>
+  <si>
+    <t>So, we can just use the average coastal wind capacity factor number for offshore wind.</t>
+  </si>
+  <si>
+    <t>2015-2019 average</t>
+  </si>
+  <si>
+    <t>2010-2019 average</t>
+  </si>
+  <si>
+    <t>Overall takeaways vs. the US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas onshore wind has a similar alignment with peak demand as the rest of the US. </t>
+  </si>
+  <si>
+    <t>However, the solar and offshore (i.e., coastal) alignment is much better in Texas</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Decided to use more recent data.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,8 +1193,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,8 +1270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1379,6 +1501,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1396,7 +1598,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1506,6 +1708,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1530,19 +1786,34 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Table title" xfId="4"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1574,7 +1845,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1642,7 +1919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1710,7 +1993,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2103,10 +2392,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2126,27 +2417,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -2162,35 +2453,35 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>84</v>
       </c>
       <c r="H7" s="66" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -2198,19 +2489,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H11" s="65"/>
     </row>
@@ -2225,28 +2516,28 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H15" s="65"/>
     </row>
@@ -2255,19 +2546,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H18" s="65"/>
     </row>
@@ -2282,28 +2573,28 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H22" s="65"/>
     </row>
@@ -2314,12 +2605,12 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="58" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2347,88 +2638,89 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A51" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Summer, Winter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{4C0026A5-CEE6-4CB4-80C9-D3F686C10ABD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:F151"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
@@ -2696,7 +2988,7 @@
   <sheetData>
     <row r="3" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2712,7 +3004,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2751,7 +3043,7 @@
         <v>2014</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
@@ -2986,7 +3278,7 @@
         <v>2014</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
@@ -3271,7 +3563,7 @@
         <v>2014</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
@@ -3506,7 +3798,7 @@
         <v>2014</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
@@ -3816,7 +4108,7 @@
         <v>2014</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
@@ -4051,7 +4343,7 @@
         <v>2014</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
@@ -4312,7 +4604,7 @@
         <v>2014</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
@@ -4530,15 +4822,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
+    <col min="2" max="8" width="15.1328125" customWidth="1"/>
     <col min="257" max="257" width="4.265625" customWidth="1"/>
     <col min="258" max="258" width="10.1328125" customWidth="1"/>
     <col min="513" max="513" width="4.265625" customWidth="1"/>
@@ -4700,22 +4994,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="33"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="33"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -4800,22 +5094,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="33"/>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="33"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -4898,41 +5192,41 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="33"/>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="33"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="33"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="33"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
@@ -4964,11 +5258,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="24"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="24"/>
       <c r="F27" s="26" t="s">
         <v>43</v>
@@ -4981,11 +5275,11 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="24"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="24"/>
       <c r="F28" s="28" t="s">
         <v>45</v>
@@ -5098,14 +5392,14 @@
         <v>0.52841491622905723</v>
       </c>
       <c r="E33" s="24"/>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="24"/>
@@ -5119,12 +5413,12 @@
         <v>0.65962836786935797</v>
       </c>
       <c r="E34" s="24"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="24"/>
@@ -5138,12 +5432,12 @@
         <v>0.24876064559584415</v>
       </c>
       <c r="E35" s="24"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="24"/>
@@ -5157,324 +5451,85 @@
         <v>#N/A</v>
       </c>
       <c r="E36" s="24"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="24"/>
-      <c r="B38" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="24"/>
-      <c r="B39" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="A39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="24"/>
-      <c r="B40" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
+      <c r="A40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="24"/>
-      <c r="B41" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="30">
-        <v>0.29543103200053838</v>
-      </c>
-      <c r="D41" s="30">
-        <v>0.2701657716118599</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
+      <c r="A41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="30">
-        <v>0.11364289283734244</v>
-      </c>
-      <c r="D42" s="30">
-        <v>0.42284951901881168</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
+      <c r="A42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="24"/>
-      <c r="B43" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="30">
-        <v>0.17482997682332424</v>
-      </c>
-      <c r="D43" s="30">
-        <v>0.4366005309436829</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
+      <c r="A43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="24"/>
-      <c r="B44" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="30">
-        <v>0.17005799552891365</v>
-      </c>
-      <c r="D44" s="30">
-        <v>0.32465499187296826</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="24"/>
-      <c r="B45" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="30">
-        <v>0.2053475719253573</v>
-      </c>
-      <c r="D45" s="30">
-        <v>0.15738835824145475</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="24"/>
-      <c r="B46" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="30">
-        <v>0.23759799236782317</v>
-      </c>
-      <c r="D46" s="30">
-        <v>0.50342203636869765</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="24"/>
-      <c r="B47" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="30">
-        <v>0.17854608620047629</v>
-      </c>
-      <c r="D47" s="31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
+      <c r="A44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F33:K36"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B20:G23"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F33:K36"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5482,7 +5537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5496,16 +5551,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5519,7 +5574,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -5533,7 +5588,7 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -5547,7 +5602,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -5561,7 +5616,7 @@
         <v>0.128</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5667,10 +5722,10 @@
         <v>2016</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D13" s="56">
         <v>0.156</v>
@@ -5678,7 +5733,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -5690,7 +5745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5768,16 +5823,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E1" s="61" t="s">
         <v>22</v>
@@ -5791,10 +5846,10 @@
         <v>44659</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <f>MONTH(C2)</f>
@@ -5809,10 +5864,10 @@
         <v>45884</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E19" si="0">MONTH(C3)</f>
@@ -5827,10 +5882,10 @@
         <v>43784</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -5845,10 +5900,10 @@
         <v>41419</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -5863,10 +5918,10 @@
         <v>42441</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -5881,10 +5936,10 @@
         <v>42689</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -5899,10 +5954,10 @@
         <v>45597</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -5917,10 +5972,10 @@
         <v>45431</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -5935,10 +5990,10 @@
         <v>50270</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -5953,10 +6008,10 @@
         <v>48615</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -5971,10 +6026,10 @@
         <v>46897</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -5989,10 +6044,10 @@
         <v>46042</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -6007,10 +6062,10 @@
         <v>47350</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -6025,10 +6080,10 @@
         <v>45545</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -6043,10 +6098,10 @@
         <v>46846</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -6061,10 +6116,10 @@
         <v>45097</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -6079,10 +6134,10 @@
         <v>45089</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -6097,10 +6152,10 @@
         <v>47358</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -6112,7 +6167,7 @@
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="62" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B21" s="61"/>
     </row>
@@ -6145,7 +6200,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="59" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
@@ -6173,11 +6228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E16"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6188,19 +6243,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6208,7 +6263,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="43">
         <f>SUMPRODUCT(CAISO!F15:F18,'CAISO - Peak'!B22:B25)/SUM('CAISO - Peak'!B22:B25)</f>
@@ -6218,15 +6273,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C3" s="43">
         <f>SUMPRODUCT(CAISO!F30:F33,'CAISO - Peak'!B22:B25)/SUM('CAISO - Peak'!B22:B25)</f>
@@ -6236,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -6244,7 +6299,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C4" s="44">
         <f>ERCOT!D7</f>
@@ -6254,15 +6309,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C5" s="44">
         <f>AVERAGE(ERCOT!F29:G29)</f>
@@ -6272,15 +6327,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C6" s="45">
         <f>'MISO-Wind'!D13</f>
@@ -6290,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -6298,7 +6353,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C7" s="44">
         <v>0.38800000000000001</v>
@@ -6307,15 +6362,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C8" s="44">
         <v>0.19</v>
@@ -6324,15 +6379,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C9" s="44">
         <v>0.4</v>
@@ -6341,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -6349,7 +6404,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C10" s="44">
         <v>0.46</v>
@@ -6358,15 +6413,15 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C11" s="45">
         <v>0.28000000000000003</v>
@@ -6375,15 +6430,15 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C12" s="45">
         <v>0.34</v>
@@ -6392,15 +6447,15 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C13" s="44">
         <v>0.05</v>
@@ -6409,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -6417,7 +6472,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C14" s="44">
         <v>0.38</v>
@@ -6426,15 +6481,15 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C15" s="44">
         <v>0.26</v>
@@ -6443,15 +6498,15 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C16" s="44">
         <v>0.33</v>
@@ -6460,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6469,14 +6524,989 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34122549-7CCA-462A-B71F-F9BC43D8420F}">
+  <dimension ref="A1:J80"/>
+  <sheetViews>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="27.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="37">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0.74</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="37">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="37">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="38">
+        <v>0.76</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="37">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="38">
+        <v>0.83399845655972893</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="37">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="38">
+        <v>0.798165978915654</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="37">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="38">
+        <v>0.77862047440699134</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="37">
+        <v>2012</v>
+      </c>
+      <c r="B20" s="38">
+        <v>0.80243445692883919</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="94">
+        <f>AVERAGE(B14:B20)</f>
+        <v>0.78760276668731621</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="110"/>
+    </row>
+    <row r="34" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="20">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="20">
+        <v>0.34116315674188546</v>
+      </c>
+      <c r="C35" s="20">
+        <v>4196.9999999999991</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0.75046786676932464</v>
+      </c>
+      <c r="E35" s="20">
+        <v>2811.5999999999995</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0.22154830011766852</v>
+      </c>
+      <c r="G35" s="20">
+        <v>14949.900000000001</v>
+      </c>
+      <c r="H35" s="72">
+        <f>(G35*F35+E35*D35+C35*B35)/SUM(G35,E35,C35)</f>
+        <v>0.31213435138936896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="20">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="20">
+        <v>0.25601248834214796</v>
+      </c>
+      <c r="C36" s="20">
+        <v>4196.9999999999991</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0.52912898513289652</v>
+      </c>
+      <c r="E36" s="20">
+        <v>2610.5999999999995</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0.17106233441910607</v>
+      </c>
+      <c r="G36" s="20">
+        <v>14289.900000000007</v>
+      </c>
+      <c r="H36" s="72">
+        <f t="shared" ref="H36:H44" si="0">(G36*F36+E36*D36+C36*B36)/SUM(G36,E36,C36)</f>
+        <v>0.23226885625195012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37">
+        <v>0.24883958852315741</v>
+      </c>
+      <c r="C37">
+        <v>3171.2000000000003</v>
+      </c>
+      <c r="D37">
+        <v>0.6292817913840355</v>
+      </c>
+      <c r="E37">
+        <v>2038.3999999999996</v>
+      </c>
+      <c r="F37">
+        <v>0.20176401393775661</v>
+      </c>
+      <c r="G37">
+        <v>12241.200000000008</v>
+      </c>
+      <c r="H37" s="72">
+        <f t="shared" si="0"/>
+        <v>0.26025636383986522</v>
+      </c>
+      <c r="I37" s="40"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38">
+        <v>0.49428133427321475</v>
+      </c>
+      <c r="C38">
+        <v>2126.6999999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.73561503428382313</v>
+      </c>
+      <c r="E38">
+        <v>1873.3999999999996</v>
+      </c>
+      <c r="F38">
+        <v>0.18242522599846367</v>
+      </c>
+      <c r="G38">
+        <v>10447.500000000004</v>
+      </c>
+      <c r="H38" s="72">
+        <f t="shared" si="0"/>
+        <v>0.30006207726162887</v>
+      </c>
+      <c r="I38" s="40"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2015</v>
+      </c>
+      <c r="B39">
+        <v>0.18261441840165463</v>
+      </c>
+      <c r="C39">
+        <v>1476.9</v>
+      </c>
+      <c r="D39">
+        <v>0.52026024770856427</v>
+      </c>
+      <c r="E39">
+        <v>1873.3999999999996</v>
+      </c>
+      <c r="F39">
+        <v>0.10052049495084794</v>
+      </c>
+      <c r="G39">
+        <v>9563.0000000000018</v>
+      </c>
+      <c r="H39" s="72">
+        <f t="shared" si="0"/>
+        <v>0.17080345657652085</v>
+      </c>
+      <c r="I39" s="40"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40">
+        <v>0.21137131023252223</v>
+      </c>
+      <c r="C40">
+        <v>207</v>
+      </c>
+      <c r="D40">
+        <v>0.60036662915372696</v>
+      </c>
+      <c r="E40">
+        <v>1671.3999999999996</v>
+      </c>
+      <c r="F40">
+        <v>0.20107020211013485</v>
+      </c>
+      <c r="G40">
+        <v>8955.2000000000007</v>
+      </c>
+      <c r="H40" s="72">
+        <f t="shared" si="0"/>
+        <v>0.26287019265270556</v>
+      </c>
+      <c r="I40" s="40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2013</v>
+      </c>
+      <c r="B41">
+        <v>0.10926529790660229</v>
+      </c>
+      <c r="C41">
+        <v>207</v>
+      </c>
+      <c r="D41">
+        <v>0.76613110708566334</v>
+      </c>
+      <c r="E41">
+        <v>1269.6999999999996</v>
+      </c>
+      <c r="F41">
+        <v>0.12634046885236136</v>
+      </c>
+      <c r="G41">
+        <v>8955.2000000000007</v>
+      </c>
+      <c r="H41" s="72">
+        <f t="shared" si="0"/>
+        <v>0.20387261668535928</v>
+      </c>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2012</v>
+      </c>
+      <c r="B42">
+        <v>0.1013425925925926</v>
+      </c>
+      <c r="C42">
+        <v>207</v>
+      </c>
+      <c r="D42">
+        <v>0.52841491622905734</v>
+      </c>
+      <c r="E42">
+        <v>1066.3999999999999</v>
+      </c>
+      <c r="F42">
+        <v>7.8319401444788467E-2</v>
+      </c>
+      <c r="G42">
+        <v>8074.9999999999991</v>
+      </c>
+      <c r="H42" s="72">
+        <f t="shared" si="0"/>
+        <v>0.13017294403320356</v>
+      </c>
+      <c r="I42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2011</v>
+      </c>
+      <c r="B43">
+        <v>0.12445528304223959</v>
+      </c>
+      <c r="C43">
+        <v>207</v>
+      </c>
+      <c r="D43">
+        <v>0.65962836786935797</v>
+      </c>
+      <c r="E43">
+        <v>965.59999999999991</v>
+      </c>
+      <c r="F43">
+        <v>0.12779328251515693</v>
+      </c>
+      <c r="G43">
+        <v>7746.4999999999991</v>
+      </c>
+      <c r="H43" s="72">
+        <f t="shared" si="0"/>
+        <v>0.18529336576650771</v>
+      </c>
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2010</v>
+      </c>
+      <c r="B44">
+        <v>7.0598184223707811E-2</v>
+      </c>
+      <c r="C44">
+        <v>207</v>
+      </c>
+      <c r="D44">
+        <v>0.24690247300601112</v>
+      </c>
+      <c r="E44">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="F44">
+        <v>6.2330849606993519E-2</v>
+      </c>
+      <c r="G44">
+        <v>6663.3000000000011</v>
+      </c>
+      <c r="H44" s="72">
+        <f t="shared" si="0"/>
+        <v>6.6795365160494655E-2</v>
+      </c>
+      <c r="I44" s="40"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="95">
+        <f>AVERAGE(H35:H39)</f>
+        <v>0.25510502106386684</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" s="96">
+        <f>AVERAGE(H35:H44)</f>
+        <v>0.21245295896176047</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>0.19</v>
+      </c>
+      <c r="D49" s="73">
+        <f>C50/C49</f>
+        <v>2.1052631578947367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D51" s="73">
+        <f>C52/C51</f>
+        <v>1.2142857142857142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>0.26</v>
+      </c>
+      <c r="D53" s="73">
+        <f>C54/C53</f>
+        <v>1.2692307692307692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C55" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="75">
+        <f>AVERAGE(D49:D54)</f>
+        <v>1.52959321380374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="74"/>
+      <c r="D56" s="75"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C58" s="74"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="78"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="79"/>
+      <c r="B61" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C61" s="82">
+        <f>(G35*F35+C35*B35)/SUM(G35,C35)</f>
+        <v>0.24776787369103223</v>
+      </c>
+      <c r="D61" s="82">
+        <f>D35</f>
+        <v>0.75046786676932464</v>
+      </c>
+      <c r="E61" s="83">
+        <f>D61/C61</f>
+        <v>3.0289151518697772</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="79"/>
+      <c r="B62" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C62" s="82">
+        <f>(G36*F36+C36*B36)/SUM(G36,C36)</f>
+        <v>0.19034819608412329</v>
+      </c>
+      <c r="D62" s="82">
+        <f>D36</f>
+        <v>0.52912898513289652</v>
+      </c>
+      <c r="E62" s="83">
+        <f t="shared" ref="E62:E65" si="1">D62/C62</f>
+        <v>2.7797951124215068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="79"/>
+      <c r="B63" s="80">
+        <v>2017</v>
+      </c>
+      <c r="C63" s="82">
+        <f>(G37*F37+C37*B37)/SUM(G37,C37)</f>
+        <v>0.21145011487759874</v>
+      </c>
+      <c r="D63" s="82">
+        <f>D37</f>
+        <v>0.6292817913840355</v>
+      </c>
+      <c r="E63" s="83">
+        <f t="shared" si="1"/>
+        <v>2.9760295554736649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="79"/>
+      <c r="B64" s="80">
+        <v>2016</v>
+      </c>
+      <c r="C64" s="82">
+        <f>(G38*F38+C38*B38)/SUM(G38,C38)</f>
+        <v>0.2351700833625833</v>
+      </c>
+      <c r="D64" s="82">
+        <f>D38</f>
+        <v>0.73561503428382313</v>
+      </c>
+      <c r="E64" s="83">
+        <f t="shared" si="1"/>
+        <v>3.1280128142390371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="79"/>
+      <c r="B65" s="88">
+        <v>2015</v>
+      </c>
+      <c r="C65" s="89">
+        <f>(G39*F39+C39*B39)/SUM(G39,C39)</f>
+        <v>0.111502887503724</v>
+      </c>
+      <c r="D65" s="89">
+        <f>D39</f>
+        <v>0.52026024770856427</v>
+      </c>
+      <c r="E65" s="90">
+        <f t="shared" si="1"/>
+        <v>4.6658903581415192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="84"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="87">
+        <f>AVERAGE(E61:E64)</f>
+        <v>2.9781881585009962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B74" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="91">
+        <f>AVERAGE(D35:D39)</f>
+        <v>0.63295078505572877</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B75" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" s="45">
+        <f>AVERAGE(D35:D44)</f>
+        <v>0.59661974186224609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A24:F27"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A31:G31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6486,13 +7516,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="75" t="s">
-        <v>188</v>
+      <c r="B1" s="67" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -6524,11 +7554,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B6" s="4">
-        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"onshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"onshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,0))</f>
-        <v>0.23074581973505082</v>
+        <f>'Texas Notes'!H46</f>
+        <v>0.25510502106386684</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -6536,8 +7566,8 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$15,'Wind and Solar Capacity Factors'!$A$2:$A$15,"solar PV",'Wind and Solar Capacity Factors'!$D$2:$D$15,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C15,'Wind and Solar Capacity Factors'!$A$2:$A$15,"solar pv",'Wind and Solar Capacity Factors'!$D$2:$D$15,1))</f>
-        <v>0.5900427138981339</v>
+        <f>'Texas Notes'!B21</f>
+        <v>0.78760276668731621</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -6582,7 +7612,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B13" s="4">
         <f>B2</f>
@@ -6591,16 +7621,16 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B14" s="4">
-        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"offshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"offshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,0))</f>
-        <v>0.35666666666666669</v>
+        <f>'Texas Notes'!C74</f>
+        <v>0.63295078505572877</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
@@ -6609,7 +7639,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
@@ -6619,7 +7649,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B17" s="4">
         <f>B9</f>
